--- a/mission/shopping-web_backstage_issues.xlsx
+++ b/mission/shopping-web_backstage_issues.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywd-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\project_sample\useful_txt\mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Issue</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,43 +59,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>订单号模糊搜索没做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位-&gt;产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节数限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接未完成-&gt;分开两个接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>选了建筑公司项目搜索不到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江助正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>品种为string的订单搜索不出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单号模糊搜索没做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史发货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有列表默认倒序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位-&gt;产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节数限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆</t>
+    <t>王缙光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13166666666-13188888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有列表默认创建时间倒序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶闻达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,15 +139,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对接未完成-&gt;分开两个接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>租赁数据接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待劳务组研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改审核问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support 前端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +236,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,20 +558,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.75" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -522,90 +581,126 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -613,4 +708,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5">
+        <v>42821</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42822</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42823</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42824</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>42825</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>